--- a/Banco Central/13/1/2/2/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
+++ b/Banco Central/13/1/2/2/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>Serie</t>
   </si>
@@ -677,6 +677,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X198"/>
+  <dimension ref="A1:X199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15629,7 +15632,7 @@
         <v>2304981</v>
       </c>
       <c r="D198">
-        <v>249939</v>
+        <v>249868</v>
       </c>
       <c r="E198">
         <v>228075</v>
@@ -15638,13 +15641,13 @@
         <v>5993</v>
       </c>
       <c r="G198">
-        <v>40271</v>
+        <v>41271</v>
       </c>
       <c r="H198">
         <v>69348</v>
       </c>
       <c r="I198">
-        <v>91901</v>
+        <v>90972</v>
       </c>
       <c r="J198">
         <v>5778636</v>
@@ -15690,6 +15693,80 @@
       </c>
       <c r="X198">
         <v>-3345162</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24">
+      <c r="A199" t="s">
+        <v>221</v>
+      </c>
+      <c r="B199">
+        <v>3713146</v>
+      </c>
+      <c r="C199">
+        <v>2757722</v>
+      </c>
+      <c r="D199">
+        <v>461533</v>
+      </c>
+      <c r="E199">
+        <v>229718</v>
+      </c>
+      <c r="F199">
+        <v>9681</v>
+      </c>
+      <c r="G199">
+        <v>25646</v>
+      </c>
+      <c r="H199">
+        <v>73921</v>
+      </c>
+      <c r="I199">
+        <v>154923</v>
+      </c>
+      <c r="J199">
+        <v>5317484</v>
+      </c>
+      <c r="K199">
+        <v>1117538</v>
+      </c>
+      <c r="L199">
+        <v>359092</v>
+      </c>
+      <c r="M199">
+        <v>20677</v>
+      </c>
+      <c r="N199">
+        <v>3116639</v>
+      </c>
+      <c r="O199">
+        <v>695384</v>
+      </c>
+      <c r="P199">
+        <v>8153</v>
+      </c>
+      <c r="Q199">
+        <v>-1604338</v>
+      </c>
+      <c r="R199">
+        <v>671374</v>
+      </c>
+      <c r="S199">
+        <v>195</v>
+      </c>
+      <c r="T199">
+        <v>350469</v>
+      </c>
+      <c r="U199">
+        <v>321100</v>
+      </c>
+      <c r="V199">
+        <v>3713341</v>
+      </c>
+      <c r="W199">
+        <v>5989053</v>
+      </c>
+      <c r="X199">
+        <v>-2275712</v>
       </c>
     </row>
   </sheetData>
